--- a/クリックポスト発送情報/20200821130624/英子日本发货表格8.20.xlsx
+++ b/クリックポスト発送情報/20200821130624/英子日本发货表格8.20.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>序号</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628573538854</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628573538843</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628573538810</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628573538832
+628573538821</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628573538806</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -158,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -289,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -374,12 +395,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,7 +416,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1382,10 +1406,10 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="16"/>
@@ -1395,22 +1419,24 @@
       <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="34"/>
+      <c r="K3" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -1418,11 +1444,13 @@
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="K4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="35" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -1447,10 +1475,12 @@
       <c r="I5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="35" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="22"/>
@@ -1460,22 +1490,24 @@
       <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="35" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>38</v>
@@ -1483,11 +1515,13 @@
       <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="K7" s="35" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="9" spans="1:181" ht="121.95" customHeight="1"/>
